--- a/Code/Results/Cases/Case_2_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.173605622397702</v>
+        <v>1.135570874805808</v>
       </c>
       <c r="C2">
-        <v>0.313414167722641</v>
+        <v>0.263318201289195</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08012245842004795</v>
+        <v>0.2273233935621874</v>
       </c>
       <c r="F2">
-        <v>1.067476072895388</v>
+        <v>1.978202155727672</v>
       </c>
       <c r="G2">
-        <v>0.0008009756672653719</v>
+        <v>0.002456290033249817</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05450962909897328</v>
+        <v>0.05095900013149546</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2692810616551498</v>
+        <v>0.4284708600604716</v>
       </c>
       <c r="M2">
-        <v>0.4315201279607095</v>
+        <v>0.3304236578472697</v>
       </c>
       <c r="N2">
-        <v>0.8284757609703348</v>
+        <v>1.560381953623658</v>
       </c>
       <c r="O2">
-        <v>1.89391013098853</v>
+        <v>3.419704047225878</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.891768095403336</v>
+        <v>1.056281248217857</v>
       </c>
       <c r="C3">
-        <v>0.2913936412217168</v>
+        <v>0.2558495972362778</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08030675278198629</v>
+        <v>0.2283396101667172</v>
       </c>
       <c r="F3">
-        <v>1.014733366054372</v>
+        <v>1.978883395599311</v>
       </c>
       <c r="G3">
-        <v>0.0008051836974720884</v>
+        <v>0.002459119679845207</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05150387611610441</v>
+        <v>0.04990776632901728</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2458730188539988</v>
+        <v>0.4240151795748943</v>
       </c>
       <c r="M3">
-        <v>0.378535213079509</v>
+        <v>0.3165252378589969</v>
       </c>
       <c r="N3">
-        <v>0.8631316124280666</v>
+        <v>1.575662556045689</v>
       </c>
       <c r="O3">
-        <v>1.811585102359317</v>
+        <v>3.427084142481505</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.719357442552905</v>
+        <v>1.00788868674411</v>
       </c>
       <c r="C4">
-        <v>0.2778486538152123</v>
+        <v>0.2512210974274893</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08049165627353894</v>
+        <v>0.2290203206618227</v>
       </c>
       <c r="F4">
-        <v>0.9841504790767956</v>
+        <v>1.980309571153157</v>
       </c>
       <c r="G4">
-        <v>0.0008078542860927481</v>
+        <v>0.002460950956834709</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04965649020538976</v>
+        <v>0.04926013669120266</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2316958636981141</v>
+        <v>0.4214239446488506</v>
       </c>
       <c r="M4">
-        <v>0.3461885433229455</v>
+        <v>0.3081030873420758</v>
       </c>
       <c r="N4">
-        <v>0.8855342415623504</v>
+        <v>1.585607079256857</v>
       </c>
       <c r="O4">
-        <v>1.765119434996933</v>
+        <v>3.433641998563701</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.649231690151709</v>
+        <v>0.9882428740015143</v>
       </c>
       <c r="C5">
-        <v>0.2723212507651454</v>
+        <v>0.2493242874414676</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.08058471883252594</v>
+        <v>0.2293120160341005</v>
       </c>
       <c r="F5">
-        <v>0.9721179937701265</v>
+        <v>1.981144345943378</v>
       </c>
       <c r="G5">
-        <v>0.0008089648056944004</v>
+        <v>0.002461720889805921</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04890313804195401</v>
+        <v>0.04899569821027328</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2259648105212761</v>
+        <v>0.4204045096023563</v>
       </c>
       <c r="M5">
-        <v>0.333048387382739</v>
+        <v>0.3046992958999084</v>
       </c>
       <c r="N5">
-        <v>0.894938828871382</v>
+        <v>1.589800977599314</v>
       </c>
       <c r="O5">
-        <v>1.747155119771406</v>
+        <v>3.436823714098807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.637594617713432</v>
+        <v>0.9849852404970818</v>
       </c>
       <c r="C6">
-        <v>0.2714029193835472</v>
+        <v>0.2490086824933826</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.08060123229201999</v>
+        <v>0.2293613164217128</v>
       </c>
       <c r="F6">
-        <v>0.9701453551341785</v>
+        <v>1.981298280835503</v>
       </c>
       <c r="G6">
-        <v>0.0008091505607147186</v>
+        <v>0.00246185016849863</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04877801084053601</v>
+        <v>0.04895175736150392</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.225015885128073</v>
+        <v>0.4202374432905955</v>
       </c>
       <c r="M6">
-        <v>0.3308688194871223</v>
+        <v>0.3041358159392615</v>
       </c>
       <c r="N6">
-        <v>0.8965168779663237</v>
+        <v>1.590505914798285</v>
       </c>
       <c r="O6">
-        <v>1.744229219323188</v>
+        <v>3.437382791485277</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.718411199016089</v>
+        <v>1.007623432970718</v>
       </c>
       <c r="C7">
-        <v>0.2777741425785649</v>
+        <v>0.2511955594197843</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08049284005176283</v>
+        <v>0.2290241966255948</v>
       </c>
       <c r="F7">
-        <v>0.9839864917070287</v>
+        <v>1.980319802211298</v>
       </c>
       <c r="G7">
-        <v>0.0008078691723304119</v>
+        <v>0.002460961244189552</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04964633245219474</v>
+        <v>0.04925657247631676</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2316183891597348</v>
+        <v>0.4214100481324152</v>
       </c>
       <c r="M7">
-        <v>0.3460111700631217</v>
+        <v>0.3080570676807284</v>
       </c>
       <c r="N7">
-        <v>0.8856599696036653</v>
+        <v>1.585663066931676</v>
       </c>
       <c r="O7">
-        <v>1.764873302679945</v>
+        <v>3.433682846322171</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.076278264307575</v>
+        <v>1.108172001233868</v>
       </c>
       <c r="C8">
-        <v>0.305825526225405</v>
+        <v>0.2607519506909313</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.08017090997860343</v>
+        <v>0.2276620248134424</v>
       </c>
       <c r="F8">
-        <v>1.048902508134631</v>
+        <v>1.978227946751844</v>
       </c>
       <c r="G8">
-        <v>0.0008024088166077319</v>
+        <v>0.002457246256878546</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05347358670153568</v>
+        <v>0.05059699691782527</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2611675958488462</v>
+        <v>0.4269046299241097</v>
       </c>
       <c r="M8">
-        <v>0.4132088636748961</v>
+        <v>0.3256084824789767</v>
       </c>
       <c r="N8">
-        <v>0.8401873779639644</v>
+        <v>1.565534064036743</v>
       </c>
       <c r="O8">
-        <v>1.864642763002649</v>
+        <v>3.421827967843143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.784484290705734</v>
+        <v>1.307617582136572</v>
       </c>
       <c r="C9">
-        <v>0.3607223045755603</v>
+        <v>0.2791496813469081</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08012449626105678</v>
+        <v>0.2254397725382038</v>
       </c>
       <c r="F9">
-        <v>1.191581528169237</v>
+        <v>1.982118577148995</v>
       </c>
       <c r="G9">
-        <v>0.0007923711701791195</v>
+        <v>0.002450702709923975</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06096769048439299</v>
+        <v>0.05320756294125317</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3208061008447629</v>
+        <v>0.4388204109861107</v>
       </c>
       <c r="M9">
-        <v>0.5467301493513688</v>
+        <v>0.3609024156056577</v>
       </c>
       <c r="N9">
-        <v>0.7602761267626192</v>
+        <v>1.5305187055774</v>
       </c>
       <c r="O9">
-        <v>2.095349110403532</v>
+        <v>3.414673888229203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.310794713043435</v>
+        <v>1.455491057759957</v>
       </c>
       <c r="C10">
-        <v>0.4011126916171719</v>
+        <v>0.2924547811930154</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.08046992389069807</v>
+        <v>0.2240790244077466</v>
       </c>
       <c r="F10">
-        <v>1.3073924490878</v>
+        <v>1.989847181378835</v>
       </c>
       <c r="G10">
-        <v>0.0007853769993492422</v>
+        <v>0.002446342710039818</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06647249429082791</v>
+        <v>0.05511367049409444</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3658675483126643</v>
+        <v>0.4482634560890091</v>
       </c>
       <c r="M10">
-        <v>0.6463008167609701</v>
+        <v>0.387357052321093</v>
       </c>
       <c r="N10">
-        <v>0.7077141147259312</v>
+        <v>1.507505842787531</v>
       </c>
       <c r="O10">
-        <v>2.290179504739115</v>
+        <v>3.419254237490406</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.552027943381916</v>
+        <v>1.523045484020997</v>
       </c>
       <c r="C11">
-        <v>0.419530955441104</v>
+        <v>0.2984610790005604</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.08071488921188674</v>
+        <v>0.2235186649118912</v>
       </c>
       <c r="F11">
-        <v>1.36284616731723</v>
+        <v>1.994420361431452</v>
       </c>
       <c r="G11">
-        <v>0.0007822711832193344</v>
+        <v>0.002444455453457222</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06897789393709175</v>
+        <v>0.05597804879336721</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.386688465945511</v>
+        <v>0.45270744359145</v>
       </c>
       <c r="M11">
-        <v>0.6920159543912519</v>
+        <v>0.399503909406107</v>
       </c>
       <c r="N11">
-        <v>0.685257399334148</v>
+        <v>1.497624885061377</v>
       </c>
       <c r="O11">
-        <v>2.385259757027882</v>
+        <v>3.423479746935982</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.643681367742431</v>
+        <v>1.548666688533842</v>
       </c>
       <c r="C12">
-        <v>0.4265146455556419</v>
+        <v>0.3007287804891803</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.08082076000967042</v>
+        <v>0.2233148756823429</v>
       </c>
       <c r="F12">
-        <v>1.384277668872969</v>
+        <v>1.996304071061644</v>
       </c>
       <c r="G12">
-        <v>0.0007811054225218783</v>
+        <v>0.002443754549109703</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06992690953676828</v>
+        <v>0.05630495604509633</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3946236185316252</v>
+        <v>0.4544114471008669</v>
       </c>
       <c r="M12">
-        <v>0.7093961165560145</v>
+        <v>0.4041195668889372</v>
       </c>
       <c r="N12">
-        <v>0.6769736217082354</v>
+        <v>1.493967695346079</v>
       </c>
       <c r="O12">
-        <v>2.422276913993187</v>
+        <v>3.425388219742587</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.623927936172947</v>
+        <v>1.543146954223687</v>
       </c>
       <c r="C13">
-        <v>0.4250101328106268</v>
+        <v>0.3002406923538103</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.08079736793065173</v>
+        <v>0.2233583918800228</v>
       </c>
       <c r="F13">
-        <v>1.379642214486609</v>
+        <v>1.995891624378118</v>
       </c>
       <c r="G13">
-        <v>0.0007813560393087772</v>
+        <v>0.0024439048904255</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06972250819215375</v>
+        <v>0.05623456950019445</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3929123122907754</v>
+        <v>0.4540435208738529</v>
       </c>
       <c r="M13">
-        <v>0.7056497848996699</v>
+        <v>0.4031247993614642</v>
       </c>
       <c r="N13">
-        <v>0.6787477091337735</v>
+        <v>1.494751577691282</v>
       </c>
       <c r="O13">
-        <v>2.414258166301153</v>
+        <v>3.424963475615812</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.559561981572415</v>
+        <v>1.525152565665849</v>
       </c>
       <c r="C14">
-        <v>0.420105309223743</v>
+        <v>0.2986477800868954</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08072333372067853</v>
+        <v>0.2235017307213809</v>
       </c>
       <c r="F14">
-        <v>1.364600481108084</v>
+        <v>1.994572290755556</v>
       </c>
       <c r="G14">
-        <v>0.0007821750714776862</v>
+        <v>0.002444397514144045</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.06905596392728697</v>
+        <v>0.05600495207953315</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3873402529094108</v>
+        <v>0.4528472098044034</v>
       </c>
       <c r="M14">
-        <v>0.6934444006102112</v>
+        <v>0.3998833250979743</v>
       </c>
       <c r="N14">
-        <v>0.6845714111486743</v>
+        <v>1.497322312034697</v>
       </c>
       <c r="O14">
-        <v>2.388284384374572</v>
+        <v>3.42363057598638</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.520176854599129</v>
+        <v>1.514135628234499</v>
       </c>
       <c r="C15">
-        <v>0.4171022317779318</v>
+        <v>0.2976711928767486</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0806797073506047</v>
+        <v>0.2235906239000194</v>
       </c>
       <c r="F15">
-        <v>1.355444343128568</v>
+        <v>1.993783945431545</v>
       </c>
       <c r="G15">
-        <v>0.0007826780820671961</v>
+        <v>0.002444701050262808</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06864772514712314</v>
+        <v>0.05586425017584062</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3839339468336078</v>
+        <v>0.4521171857919484</v>
       </c>
       <c r="M15">
-        <v>0.6859774759436164</v>
+        <v>0.397899891909006</v>
       </c>
       <c r="N15">
-        <v>0.6881675993500806</v>
+        <v>1.498907967488599</v>
       </c>
       <c r="O15">
-        <v>2.372509150249527</v>
+        <v>3.422854305364524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.295069621506457</v>
+        <v>1.451081859861688</v>
       </c>
       <c r="C16">
-        <v>0.3999101346251734</v>
+        <v>0.2920613160023038</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.08045572235565857</v>
+        <v>0.2241168231043229</v>
       </c>
       <c r="F16">
-        <v>1.303827020414019</v>
+        <v>1.989569581735509</v>
       </c>
       <c r="G16">
-        <v>0.0007855814509025166</v>
+        <v>0.002446467975669971</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06630879358730724</v>
+        <v>0.05505712464991319</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3645137043987177</v>
+        <v>0.4479760012413436</v>
       </c>
       <c r="M16">
-        <v>0.6433223825603775</v>
+        <v>0.386565467331998</v>
       </c>
       <c r="N16">
-        <v>0.7092118958872788</v>
+        <v>1.508163412951454</v>
       </c>
       <c r="O16">
-        <v>2.28410269284521</v>
+        <v>3.419021221810937</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.157467316709983</v>
+        <v>1.412472735136191</v>
       </c>
       <c r="C17">
-        <v>0.3893765723210834</v>
+        <v>0.2886079181427874</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.08034114065780074</v>
+        <v>0.224454631911442</v>
       </c>
       <c r="F17">
-        <v>1.272894528484287</v>
+        <v>1.987254955337704</v>
       </c>
       <c r="G17">
-        <v>0.0007873816146646346</v>
+        <v>0.002447576501864059</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06487431878383987</v>
+        <v>0.05456126637902159</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3526855702801868</v>
+        <v>0.445473385273857</v>
       </c>
       <c r="M17">
-        <v>0.6172682295060667</v>
+        <v>0.3796407875013443</v>
       </c>
       <c r="N17">
-        <v>0.7225018903641001</v>
+        <v>1.513991855873726</v>
       </c>
       <c r="O17">
-        <v>2.231578735910887</v>
+        <v>3.417218596306611</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.078489889653952</v>
+        <v>1.390292790178421</v>
       </c>
       <c r="C18">
-        <v>0.3833219560555392</v>
+        <v>0.2866172669576343</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.0802834727870092</v>
+        <v>0.2246544527976724</v>
       </c>
       <c r="F18">
-        <v>1.255361602691522</v>
+        <v>1.986023177298677</v>
       </c>
       <c r="G18">
-        <v>0.0007884241982520234</v>
+        <v>0.002448223148840706</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06404935701770498</v>
+        <v>0.05427580720823855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.345912390393508</v>
+        <v>0.4440479151052159</v>
       </c>
       <c r="M18">
-        <v>0.6023215540005822</v>
+        <v>0.37566850106343</v>
       </c>
       <c r="N18">
-        <v>0.73028209847444</v>
+        <v>1.51739953959099</v>
       </c>
       <c r="O18">
-        <v>2.20197010642849</v>
+        <v>3.416383356473375</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.051777047983876</v>
+        <v>1.38278771995806</v>
       </c>
       <c r="C19">
-        <v>0.3812725776156896</v>
+        <v>0.2859425229729879</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.080265347977857</v>
+        <v>0.2247230579920121</v>
       </c>
       <c r="F19">
-        <v>1.249468678762753</v>
+        <v>1.98562321671389</v>
       </c>
       <c r="G19">
-        <v>0.0007887784483533902</v>
+        <v>0.002448443649072082</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06377005520687717</v>
+        <v>0.05417911260908426</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3436241406315048</v>
+        <v>0.443567679455839</v>
       </c>
       <c r="M19">
-        <v>0.597267315157616</v>
+        <v>0.3743253830729216</v>
       </c>
       <c r="N19">
-        <v>0.732939404919108</v>
+        <v>1.518562823573163</v>
       </c>
       <c r="O19">
-        <v>2.192046007206102</v>
+        <v>3.416135169563091</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.172097651107663</v>
+        <v>1.416579957315378</v>
       </c>
       <c r="C20">
-        <v>0.3904974542263773</v>
+        <v>0.2889759889850438</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.08035248226155112</v>
+        <v>0.2244181002591645</v>
       </c>
       <c r="F20">
-        <v>1.276160340008573</v>
+        <v>1.987491050662754</v>
       </c>
       <c r="G20">
-        <v>0.0007871892453535685</v>
+        <v>0.002447457560940221</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06502700898603919</v>
+        <v>0.05461407785553618</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3539415545169646</v>
+        <v>0.4457383485289483</v>
       </c>
       <c r="M20">
-        <v>0.6200376447290097</v>
+        <v>0.3803768357589732</v>
       </c>
       <c r="N20">
-        <v>0.7210729789514545</v>
+        <v>1.513365683012104</v>
       </c>
       <c r="O20">
-        <v>2.237107127257161</v>
+        <v>3.417389623176376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.57845922187164</v>
+        <v>1.530436883890559</v>
       </c>
       <c r="C21">
-        <v>0.421545705246416</v>
+        <v>0.2991158411159915</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.08074471966135555</v>
+        <v>0.223459400689018</v>
       </c>
       <c r="F21">
-        <v>1.369006585399674</v>
+        <v>1.994955688117827</v>
       </c>
       <c r="G21">
-        <v>0.0007819342258000213</v>
+        <v>0.00244425244585773</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06925173586052225</v>
+        <v>0.05607240770213906</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3889754886833572</v>
+        <v>0.4531980223371335</v>
       </c>
       <c r="M21">
-        <v>0.6970274792273443</v>
+        <v>0.4008349951401016</v>
       </c>
       <c r="N21">
-        <v>0.6828547838467003</v>
+        <v>1.496564931299389</v>
       </c>
       <c r="O21">
-        <v>2.395885332747412</v>
+        <v>3.424013709109488</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.845832312215407</v>
+        <v>1.605080394689423</v>
       </c>
       <c r="C22">
-        <v>0.4418919747769223</v>
+        <v>0.305703411499394</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.08107771552520404</v>
+        <v>0.2228818235039025</v>
       </c>
       <c r="F22">
-        <v>1.432224773844837</v>
+        <v>2.000719865402331</v>
       </c>
       <c r="G22">
-        <v>0.0007785597711307218</v>
+        <v>0.002442237885040458</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0720144925913857</v>
+        <v>0.05702308650125332</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4121701100469863</v>
+        <v>0.4581966224921388</v>
       </c>
       <c r="M22">
-        <v>0.7477503874804867</v>
+        <v>0.4142981730295716</v>
       </c>
       <c r="N22">
-        <v>0.6591655319023602</v>
+        <v>1.486077288496368</v>
       </c>
       <c r="O22">
-        <v>2.50560069305709</v>
+        <v>3.430140482475537</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.702951129140331</v>
+        <v>1.565221009056643</v>
       </c>
       <c r="C23">
-        <v>0.43102684718761</v>
+        <v>0.302191140481284</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.08089281025621275</v>
+        <v>0.2231856138564847</v>
       </c>
       <c r="F23">
-        <v>1.398239963791738</v>
+        <v>1.997562418079397</v>
       </c>
       <c r="G23">
-        <v>0.0007803554876673541</v>
+        <v>0.002443305779879092</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07053977218573948</v>
+        <v>0.05651592072521083</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3997619113146555</v>
+        <v>0.4555175499997688</v>
       </c>
       <c r="M23">
-        <v>0.7206385414334662</v>
+        <v>0.4071042397213489</v>
       </c>
       <c r="N23">
-        <v>0.6716871867160989</v>
+        <v>1.49162966410362</v>
       </c>
       <c r="O23">
-        <v>2.446469930617639</v>
+        <v>3.426705912255841</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.165482869081814</v>
+        <v>1.414723029252627</v>
       </c>
       <c r="C24">
-        <v>0.3899906997652067</v>
+        <v>0.2888096004923852</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.08034732919633214</v>
+        <v>0.2244345987425618</v>
       </c>
       <c r="F24">
-        <v>1.274683088668922</v>
+        <v>1.987384003792386</v>
       </c>
       <c r="G24">
-        <v>0.0007872761917060106</v>
+        <v>0.002447511305039396</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06495797857238372</v>
+        <v>0.05459020298013684</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3533736403595356</v>
+        <v>0.4456185171487874</v>
       </c>
       <c r="M24">
-        <v>0.6187854924285787</v>
+        <v>0.3800440408968129</v>
       </c>
       <c r="N24">
-        <v>0.7217185557605248</v>
+        <v>1.513648598724281</v>
       </c>
       <c r="O24">
-        <v>2.234605916079175</v>
+        <v>3.417311675491533</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.592002402718776</v>
+        <v>1.253423702416683</v>
       </c>
       <c r="C25">
-        <v>0.3458708928275485</v>
+        <v>0.274209569749047</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08007214487459891</v>
+        <v>0.2259930684711993</v>
       </c>
       <c r="F25">
-        <v>1.15117673387148</v>
+        <v>1.98021063106917</v>
       </c>
       <c r="G25">
-        <v>0.0007950176779442824</v>
+        <v>0.002452393995007549</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05894096311124386</v>
+        <v>0.05250335608004164</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3044699246258631</v>
+        <v>0.4354754593254597</v>
       </c>
       <c r="M25">
-        <v>0.5103817024175612</v>
+        <v>0.3512617246361742</v>
       </c>
       <c r="N25">
-        <v>0.7808529297527791</v>
+        <v>1.539514560796249</v>
       </c>
       <c r="O25">
-        <v>2.028791132887818</v>
+        <v>3.41488371859657</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_108/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_108/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.135570874805808</v>
+        <v>2.173605622397645</v>
       </c>
       <c r="C2">
-        <v>0.263318201289195</v>
+        <v>0.3134141677227689</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2273233935621874</v>
+        <v>0.08012245842004972</v>
       </c>
       <c r="F2">
-        <v>1.978202155727672</v>
+        <v>1.067476072895388</v>
       </c>
       <c r="G2">
-        <v>0.002456290033249817</v>
+        <v>0.0008009756672949038</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05095900013149546</v>
+        <v>0.05450962909898038</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4284708600604716</v>
+        <v>0.2692810616550787</v>
       </c>
       <c r="M2">
-        <v>0.3304236578472697</v>
+        <v>0.4315201279606953</v>
       </c>
       <c r="N2">
-        <v>1.560381953623658</v>
+        <v>0.8284757609702957</v>
       </c>
       <c r="O2">
-        <v>3.419704047225878</v>
+        <v>1.893910130988473</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.056281248217857</v>
+        <v>1.891768095403307</v>
       </c>
       <c r="C3">
-        <v>0.2558495972362778</v>
+        <v>0.2913936412220153</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2283396101667172</v>
+        <v>0.08030675278196853</v>
       </c>
       <c r="F3">
-        <v>1.978883395599311</v>
+        <v>1.014733366054372</v>
       </c>
       <c r="G3">
-        <v>0.002459119679845207</v>
+        <v>0.0008051836974958293</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04990776632901728</v>
+        <v>0.05150387611613638</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4240151795748943</v>
+        <v>0.2458730188539988</v>
       </c>
       <c r="M3">
-        <v>0.3165252378589969</v>
+        <v>0.378535213079509</v>
       </c>
       <c r="N3">
-        <v>1.575662556045689</v>
+        <v>0.8631316124280701</v>
       </c>
       <c r="O3">
-        <v>3.427084142481505</v>
+        <v>1.811585102359373</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.00788868674411</v>
+        <v>1.719357442552791</v>
       </c>
       <c r="C4">
-        <v>0.2512210974274893</v>
+        <v>0.2778486538149707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2290203206618227</v>
+        <v>0.08049165627356203</v>
       </c>
       <c r="F4">
-        <v>1.980309571153157</v>
+        <v>0.9841504790768099</v>
       </c>
       <c r="G4">
-        <v>0.002460950956834709</v>
+        <v>0.0008078542860347938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04926013669120266</v>
+        <v>0.04965649020536489</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4214239446488506</v>
+        <v>0.2316958636981994</v>
       </c>
       <c r="M4">
-        <v>0.3081030873420758</v>
+        <v>0.3461885433229526</v>
       </c>
       <c r="N4">
-        <v>1.585607079256857</v>
+        <v>0.8855342415623575</v>
       </c>
       <c r="O4">
-        <v>3.433641998563701</v>
+        <v>1.765119434996933</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9882428740015143</v>
+        <v>1.649231690151566</v>
       </c>
       <c r="C5">
-        <v>0.2493242874414676</v>
+        <v>0.2723212507648896</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2293120160341005</v>
+        <v>0.08058471883252416</v>
       </c>
       <c r="F5">
-        <v>1.981144345943378</v>
+        <v>0.9721179937701265</v>
       </c>
       <c r="G5">
-        <v>0.002461720889805921</v>
+        <v>0.0008089648056356546</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.04899569821027328</v>
+        <v>0.04890313804201085</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4204045096023563</v>
+        <v>0.2259648105212833</v>
       </c>
       <c r="M5">
-        <v>0.3046992958999084</v>
+        <v>0.333048387382739</v>
       </c>
       <c r="N5">
-        <v>1.589800977599314</v>
+        <v>0.8949388288714317</v>
       </c>
       <c r="O5">
-        <v>3.436823714098807</v>
+        <v>1.74715511977135</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9849852404970818</v>
+        <v>1.637594617713546</v>
       </c>
       <c r="C6">
-        <v>0.2490086824933826</v>
+        <v>0.2714029193838883</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2293613164217128</v>
+        <v>0.08060123229203064</v>
       </c>
       <c r="F6">
-        <v>1.981298280835503</v>
+        <v>0.9701453551341999</v>
       </c>
       <c r="G6">
-        <v>0.00246185016849863</v>
+        <v>0.000809150560655747</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.04895175736150392</v>
+        <v>0.04877801084054312</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4202374432905955</v>
+        <v>0.2250158851280801</v>
       </c>
       <c r="M6">
-        <v>0.3041358159392615</v>
+        <v>0.3308688194871365</v>
       </c>
       <c r="N6">
-        <v>1.590505914798285</v>
+        <v>0.8965168779664019</v>
       </c>
       <c r="O6">
-        <v>3.437382791485277</v>
+        <v>1.744229219323159</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.007623432970718</v>
+        <v>1.718411199016145</v>
       </c>
       <c r="C7">
-        <v>0.2511955594197843</v>
+        <v>0.2777741425787355</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2290241966255948</v>
+        <v>0.0804928400517877</v>
       </c>
       <c r="F7">
-        <v>1.980319802211298</v>
+        <v>0.9839864917070287</v>
       </c>
       <c r="G7">
-        <v>0.002460961244189552</v>
+        <v>0.0008078691723884859</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.04925657247631676</v>
+        <v>0.04964633245209527</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4214100481324152</v>
+        <v>0.2316183891597277</v>
       </c>
       <c r="M7">
-        <v>0.3080570676807284</v>
+        <v>0.3460111700631288</v>
       </c>
       <c r="N7">
-        <v>1.585663066931676</v>
+        <v>0.8856599696036582</v>
       </c>
       <c r="O7">
-        <v>3.433682846322171</v>
+        <v>1.764873302680002</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.108172001233868</v>
+        <v>2.076278264307575</v>
       </c>
       <c r="C8">
-        <v>0.2607519506909313</v>
+        <v>0.3058255262255187</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2276620248134424</v>
+        <v>0.08017090997858745</v>
       </c>
       <c r="F8">
-        <v>1.978227946751844</v>
+        <v>1.048902508134631</v>
       </c>
       <c r="G8">
-        <v>0.002457246256878546</v>
+        <v>0.0008024088166032016</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05059699691782527</v>
+        <v>0.05347358670153568</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4269046299241097</v>
+        <v>0.2611675958487893</v>
       </c>
       <c r="M8">
-        <v>0.3256084824789767</v>
+        <v>0.4132088636748961</v>
       </c>
       <c r="N8">
-        <v>1.565534064036743</v>
+        <v>0.8401873779639573</v>
       </c>
       <c r="O8">
-        <v>3.421827967843143</v>
+        <v>1.864642763002649</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.307617582136572</v>
+        <v>2.78448429070562</v>
       </c>
       <c r="C9">
-        <v>0.2791496813469081</v>
+        <v>0.3607223045750061</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2254397725382038</v>
+        <v>0.08012449626108165</v>
       </c>
       <c r="F9">
-        <v>1.982118577148995</v>
+        <v>1.191581528169252</v>
       </c>
       <c r="G9">
-        <v>0.002450702709923975</v>
+        <v>0.0007923711702355549</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05320756294125317</v>
+        <v>0.06096769048439654</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4388204109861107</v>
+        <v>0.3208061008446634</v>
       </c>
       <c r="M9">
-        <v>0.3609024156056577</v>
+        <v>0.5467301493513759</v>
       </c>
       <c r="N9">
-        <v>1.5305187055774</v>
+        <v>0.7602761267625766</v>
       </c>
       <c r="O9">
-        <v>3.414673888229203</v>
+        <v>2.095349110403532</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.455491057759957</v>
+        <v>3.310794713043208</v>
       </c>
       <c r="C10">
-        <v>0.2924547811930154</v>
+        <v>0.4011126916171577</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2240790244077466</v>
+        <v>0.08046992389069629</v>
       </c>
       <c r="F10">
-        <v>1.989847181378835</v>
+        <v>1.307392449087814</v>
       </c>
       <c r="G10">
-        <v>0.002446342710039818</v>
+        <v>0.0007853769993491781</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05511367049409444</v>
+        <v>0.06647249429082791</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4482634560890091</v>
+        <v>0.3658675483127496</v>
       </c>
       <c r="M10">
-        <v>0.387357052321093</v>
+        <v>0.646300816760963</v>
       </c>
       <c r="N10">
-        <v>1.507505842787531</v>
+        <v>0.7077141147259312</v>
       </c>
       <c r="O10">
-        <v>3.419254237490406</v>
+        <v>2.290179504739172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.523045484020997</v>
+        <v>3.552027943381859</v>
       </c>
       <c r="C11">
-        <v>0.2984610790005604</v>
+        <v>0.4195309554406492</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2235186649118912</v>
+        <v>0.08071488921188497</v>
       </c>
       <c r="F11">
-        <v>1.994420361431452</v>
+        <v>1.362846167317215</v>
       </c>
       <c r="G11">
-        <v>0.002444455453457222</v>
+        <v>0.000782271183277047</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05597804879336721</v>
+        <v>0.06897789393717346</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.45270744359145</v>
+        <v>0.3866884659455536</v>
       </c>
       <c r="M11">
-        <v>0.399503909406107</v>
+        <v>0.6920159543912661</v>
       </c>
       <c r="N11">
-        <v>1.497624885061377</v>
+        <v>0.6852573993341551</v>
       </c>
       <c r="O11">
-        <v>3.423479746935982</v>
+        <v>2.38525975702791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.548666688533842</v>
+        <v>3.643681367742317</v>
       </c>
       <c r="C12">
-        <v>0.3007287804891803</v>
+        <v>0.4265146455552724</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2233148756823429</v>
+        <v>0.08082076000968108</v>
       </c>
       <c r="F12">
-        <v>1.996304071061644</v>
+        <v>1.384277668872983</v>
       </c>
       <c r="G12">
-        <v>0.002443754549109703</v>
+        <v>0.0007811054225218084</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05630495604509633</v>
+        <v>0.06992690953667946</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4544114471008669</v>
+        <v>0.3946236185315257</v>
       </c>
       <c r="M12">
-        <v>0.4041195668889372</v>
+        <v>0.7093961165560287</v>
       </c>
       <c r="N12">
-        <v>1.493967695346079</v>
+        <v>0.6769736217082354</v>
       </c>
       <c r="O12">
-        <v>3.425388219742587</v>
+        <v>2.422276913993187</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.543146954223687</v>
+        <v>3.62392793617289</v>
       </c>
       <c r="C13">
-        <v>0.3002406923538103</v>
+        <v>0.4250101328104847</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2233583918800228</v>
+        <v>0.08079736793067305</v>
       </c>
       <c r="F13">
-        <v>1.995891624378118</v>
+        <v>1.379642214486609</v>
       </c>
       <c r="G13">
-        <v>0.0024439048904255</v>
+        <v>0.000781356039310055</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05623456950019445</v>
+        <v>0.06972250819204717</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4540435208738529</v>
+        <v>0.3929123122908038</v>
       </c>
       <c r="M13">
-        <v>0.4031247993614642</v>
+        <v>0.7056497848996699</v>
       </c>
       <c r="N13">
-        <v>1.494751577691282</v>
+        <v>0.6787477091337308</v>
       </c>
       <c r="O13">
-        <v>3.424963475615812</v>
+        <v>2.414258166301067</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.525152565665849</v>
+        <v>3.559561981572529</v>
       </c>
       <c r="C14">
-        <v>0.2986477800868954</v>
+        <v>0.4201053092234019</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2235017307213809</v>
+        <v>0.08072333372067853</v>
       </c>
       <c r="F14">
-        <v>1.994572290755556</v>
+        <v>1.364600481108099</v>
       </c>
       <c r="G14">
-        <v>0.002444397514144045</v>
+        <v>0.0007821750714780973</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05600495207953315</v>
+        <v>0.06905596392728341</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4528472098044034</v>
+        <v>0.3873402529094818</v>
       </c>
       <c r="M14">
-        <v>0.3998833250979743</v>
+        <v>0.6934444006102254</v>
       </c>
       <c r="N14">
-        <v>1.497322312034697</v>
+        <v>0.68457141114866</v>
       </c>
       <c r="O14">
-        <v>3.42363057598638</v>
+        <v>2.388284384374487</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.514135628234499</v>
+        <v>3.520176854599072</v>
       </c>
       <c r="C15">
-        <v>0.2976711928767486</v>
+        <v>0.4171022317778181</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2235906239000194</v>
+        <v>0.08067970735063135</v>
       </c>
       <c r="F15">
-        <v>1.993783945431545</v>
+        <v>1.355444343128568</v>
       </c>
       <c r="G15">
-        <v>0.002444701050262808</v>
+        <v>0.0007826780820367474</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05586425017584062</v>
+        <v>0.06864772514709472</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4521171857919484</v>
+        <v>0.3839339468334799</v>
       </c>
       <c r="M15">
-        <v>0.397899891909006</v>
+        <v>0.6859774759436092</v>
       </c>
       <c r="N15">
-        <v>1.498907967488599</v>
+        <v>0.6881675993500735</v>
       </c>
       <c r="O15">
-        <v>3.422854305364524</v>
+        <v>2.372509150249471</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.451081859861688</v>
+        <v>3.295069621506457</v>
       </c>
       <c r="C16">
-        <v>0.2920613160023038</v>
+        <v>0.3999101346252019</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2241168231043229</v>
+        <v>0.08045572235565857</v>
       </c>
       <c r="F16">
-        <v>1.989569581735509</v>
+        <v>1.303827020414019</v>
       </c>
       <c r="G16">
-        <v>0.002446467975669971</v>
+        <v>0.0007855814508739657</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05505712464991319</v>
+        <v>0.06630879358727526</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4479760012413436</v>
+        <v>0.3645137043986608</v>
       </c>
       <c r="M16">
-        <v>0.386565467331998</v>
+        <v>0.6433223825603775</v>
       </c>
       <c r="N16">
-        <v>1.508163412951454</v>
+        <v>0.709211895887357</v>
       </c>
       <c r="O16">
-        <v>3.419021221810937</v>
+        <v>2.284102692845124</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.412472735136191</v>
+        <v>3.157467316709926</v>
       </c>
       <c r="C17">
-        <v>0.2886079181427874</v>
+        <v>0.3893765723211828</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.224454631911442</v>
+        <v>0.08034114065779896</v>
       </c>
       <c r="F17">
-        <v>1.987254955337704</v>
+        <v>1.272894528484287</v>
       </c>
       <c r="G17">
-        <v>0.002447576501864059</v>
+        <v>0.0007873816146639583</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05456126637902159</v>
+        <v>0.06487431878373684</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.445473385273857</v>
+        <v>0.3526855702801441</v>
       </c>
       <c r="M17">
-        <v>0.3796407875013443</v>
+        <v>0.6172682295060525</v>
       </c>
       <c r="N17">
-        <v>1.513991855873726</v>
+        <v>0.7225018903640361</v>
       </c>
       <c r="O17">
-        <v>3.417218596306611</v>
+        <v>2.231578735910745</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.390292790178421</v>
+        <v>3.078489889654008</v>
       </c>
       <c r="C18">
-        <v>0.2866172669576343</v>
+        <v>0.383321956055994</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2246544527976724</v>
+        <v>0.08028347278699854</v>
       </c>
       <c r="F18">
-        <v>1.986023177298677</v>
+        <v>1.255361602691522</v>
       </c>
       <c r="G18">
-        <v>0.002448223148840706</v>
+        <v>0.000788424198281047</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05427580720823855</v>
+        <v>0.06404935701770853</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4440479151052159</v>
+        <v>0.3459123903934653</v>
       </c>
       <c r="M18">
-        <v>0.37566850106343</v>
+        <v>0.602321554000568</v>
       </c>
       <c r="N18">
-        <v>1.51739953959099</v>
+        <v>0.7302820984744329</v>
       </c>
       <c r="O18">
-        <v>3.416383356473375</v>
+        <v>2.20197010642849</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.38278771995806</v>
+        <v>3.051777047983876</v>
       </c>
       <c r="C19">
-        <v>0.2859425229729879</v>
+        <v>0.3812725776155617</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2247230579920121</v>
+        <v>0.08026534797787299</v>
       </c>
       <c r="F19">
-        <v>1.98562321671389</v>
+        <v>1.249468678762767</v>
       </c>
       <c r="G19">
-        <v>0.002448443649072082</v>
+        <v>0.0007887784483816912</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05417911260908426</v>
+        <v>0.06377005520689849</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.443567679455839</v>
+        <v>0.3436241406315617</v>
       </c>
       <c r="M19">
-        <v>0.3743253830729216</v>
+        <v>0.5972673151576089</v>
       </c>
       <c r="N19">
-        <v>1.518562823573163</v>
+        <v>0.7329394049191293</v>
       </c>
       <c r="O19">
-        <v>3.416135169563091</v>
+        <v>2.192046007206187</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.416579957315378</v>
+        <v>3.172097651107663</v>
       </c>
       <c r="C20">
-        <v>0.2889759889850438</v>
+        <v>0.3904974542263773</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2244181002591645</v>
+        <v>0.08035248226155112</v>
       </c>
       <c r="F20">
-        <v>1.987491050662754</v>
+        <v>1.276160340008573</v>
       </c>
       <c r="G20">
-        <v>0.002447457560940221</v>
+        <v>0.0007871892453536478</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05461407785553618</v>
+        <v>0.06502700898598235</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4457383485289483</v>
+        <v>0.3539415545169646</v>
       </c>
       <c r="M20">
-        <v>0.3803768357589732</v>
+        <v>0.6200376447290239</v>
       </c>
       <c r="N20">
-        <v>1.513365683012104</v>
+        <v>0.7210729789514048</v>
       </c>
       <c r="O20">
-        <v>3.417389623176376</v>
+        <v>2.23710712725719</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.530436883890559</v>
+        <v>3.57845922187164</v>
       </c>
       <c r="C21">
-        <v>0.2991158411159915</v>
+        <v>0.4215457052466434</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.223459400689018</v>
+        <v>0.08074471966135555</v>
       </c>
       <c r="F21">
-        <v>1.994955688117827</v>
+        <v>1.369006585399674</v>
       </c>
       <c r="G21">
-        <v>0.00244425244585773</v>
+        <v>0.0007819342258302825</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05607240770213906</v>
+        <v>0.06925173586055067</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4531980223371335</v>
+        <v>0.3889754886833288</v>
       </c>
       <c r="M21">
-        <v>0.4008349951401016</v>
+        <v>0.6970274792273514</v>
       </c>
       <c r="N21">
-        <v>1.496564931299389</v>
+        <v>0.6828547838467003</v>
       </c>
       <c r="O21">
-        <v>3.424013709109488</v>
+        <v>2.39588533274744</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.605080394689423</v>
+        <v>3.845832312215407</v>
       </c>
       <c r="C22">
-        <v>0.305703411499394</v>
+        <v>0.4418919747767234</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2228818235039025</v>
+        <v>0.08107771552520759</v>
       </c>
       <c r="F22">
-        <v>2.000719865402331</v>
+        <v>1.432224773844837</v>
       </c>
       <c r="G22">
-        <v>0.002442237885040458</v>
+        <v>0.0007785597710998941</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05702308650125332</v>
+        <v>0.0720144925913786</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4581966224921388</v>
+        <v>0.4121701100470432</v>
       </c>
       <c r="M22">
-        <v>0.4142981730295716</v>
+        <v>0.7477503874804583</v>
       </c>
       <c r="N22">
-        <v>1.486077288496368</v>
+        <v>0.6591655319023531</v>
       </c>
       <c r="O22">
-        <v>3.430140482475537</v>
+        <v>2.505600693057033</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.565221009056643</v>
+        <v>3.702951129140274</v>
       </c>
       <c r="C23">
-        <v>0.302191140481284</v>
+        <v>0.4310268471873542</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2231856138564847</v>
+        <v>0.08089281025619321</v>
       </c>
       <c r="F23">
-        <v>1.997562418079397</v>
+        <v>1.398239963791738</v>
       </c>
       <c r="G23">
-        <v>0.002443305779879092</v>
+        <v>0.0007803554876666508</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05651592072521083</v>
+        <v>0.07053977218566843</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4555175499997688</v>
+        <v>0.3997619113145845</v>
       </c>
       <c r="M23">
-        <v>0.4071042397213489</v>
+        <v>0.7206385414334662</v>
       </c>
       <c r="N23">
-        <v>1.49162966410362</v>
+        <v>0.6716871867160989</v>
       </c>
       <c r="O23">
-        <v>3.426705912255841</v>
+        <v>2.446469930617667</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.414723029252627</v>
+        <v>3.165482869081643</v>
       </c>
       <c r="C24">
-        <v>0.2888096004923852</v>
+        <v>0.3899906997651925</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2244345987425618</v>
+        <v>0.08034732919633392</v>
       </c>
       <c r="F24">
-        <v>1.987384003792386</v>
+        <v>1.274683088668922</v>
       </c>
       <c r="G24">
-        <v>0.002447511305039396</v>
+        <v>0.0007872761916490007</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05459020298013684</v>
+        <v>0.06495797857238372</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4456185171487874</v>
+        <v>0.353373640359564</v>
       </c>
       <c r="M24">
-        <v>0.3800440408968129</v>
+        <v>0.6187854924285787</v>
       </c>
       <c r="N24">
-        <v>1.513648598724281</v>
+        <v>0.7217185557605887</v>
       </c>
       <c r="O24">
-        <v>3.417311675491533</v>
+        <v>2.234605916079119</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.253423702416683</v>
+        <v>2.59200240271889</v>
       </c>
       <c r="C25">
-        <v>0.274209569749047</v>
+        <v>0.3458708928273211</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2259930684711993</v>
+        <v>0.08007214487459891</v>
       </c>
       <c r="F25">
-        <v>1.98021063106917</v>
+        <v>1.15117673387148</v>
       </c>
       <c r="G25">
-        <v>0.002452393995007549</v>
+        <v>0.0007950176778915804</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05250335608004164</v>
+        <v>0.05894096311107688</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4354754593254597</v>
+        <v>0.304469924625792</v>
       </c>
       <c r="M25">
-        <v>0.3512617246361742</v>
+        <v>0.5103817024175612</v>
       </c>
       <c r="N25">
-        <v>1.539514560796249</v>
+        <v>0.780852929752804</v>
       </c>
       <c r="O25">
-        <v>3.41488371859657</v>
+        <v>2.028791132887818</v>
       </c>
     </row>
   </sheetData>
